--- a/MCD.xlsx
+++ b/MCD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0B7A02-41DC-4B1D-928C-79F608F1E4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D03834-69DF-4B42-A460-70A1384DD684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{F591250C-CB18-4FD5-B790-41838C77CFBC}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{F591250C-CB18-4FD5-B790-41838C77CFBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>MCD</t>
   </si>
@@ -220,6 +220,18 @@
   </si>
   <si>
     <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -643,7 +655,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <v>281</v>
+        <v>296.01</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -672,10 +684,10 @@
         <v>5</v>
       </c>
       <c r="H3" s="2">
-        <v>716.619686</v>
+        <v>715.03272700000002</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -687,7 +699,7 @@
       </c>
       <c r="H4" s="2">
         <f>+H2*H3</f>
-        <v>201370.13176600001</v>
+        <v>211656.83751926999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -698,10 +710,10 @@
         <v>7</v>
       </c>
       <c r="H5" s="2">
-        <v>1221</v>
+        <v>1238</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -709,11 +721,11 @@
         <v>8</v>
       </c>
       <c r="H6" s="2">
-        <f>38990+596</f>
-        <v>39586</v>
+        <f>38845+80</f>
+        <v>38925</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -722,7 +734,7 @@
       </c>
       <c r="H7" s="2">
         <f>+H4-H5+H6</f>
-        <v>239735.13176600001</v>
+        <v>249343.83751926999</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -748,10 +760,10 @@
   <dimension ref="A1:R233"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J46" sqref="C46:J46"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,6 +802,18 @@
       <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -815,6 +839,9 @@
         <v>40755</v>
       </c>
       <c r="J3" s="2"/>
+      <c r="K3" s="2">
+        <v>41720</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -840,6 +867,9 @@
         <v>2064</v>
       </c>
       <c r="J4" s="2"/>
+      <c r="K4" s="2">
+        <v>2036</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -874,8 +904,12 @@
         <v>42819</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" ref="J5" si="1">+J3+J4</f>
+        <f t="shared" ref="J5:K5" si="1">+J3+J4</f>
         <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="1"/>
+        <v>43756</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -914,6 +948,10 @@
         <f t="shared" ref="J6" si="3">+J13/J3</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="K6" s="6">
+        <f>+K13/K3</f>
+        <v>8.7751677852348997E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -951,6 +989,10 @@
         <f t="shared" ref="J7" si="5">+J13/J4</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="K7" s="6">
+        <f>+K13/K4</f>
+        <v>1.7981335952848723</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -987,6 +1029,10 @@
       <c r="J8" s="6" t="e">
         <f t="shared" ref="J8" si="7">+J16/J5</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="6">
+        <f>+K16/K5</f>
+        <v>0.13611847518054668</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1023,7 +1069,9 @@
         <v>2739</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>2403</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1055,7 +1103,9 @@
         <v>3309</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <v>2862</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1087,7 +1137,9 @@
         <v>825</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>528</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1119,7 +1171,9 @@
         <v>2656</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <v>3661</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1152,7 +1206,9 @@
         <v>4094</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>2132</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1185,7 +1241,9 @@
         <v>124</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <v>162</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1227,10 +1285,12 @@
         <v>6874</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" ref="J16" si="9">+SUM(J13:J15)</f>
+        <f t="shared" ref="J16:K16" si="9">+SUM(J13:J15)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="5">
+        <v>5956</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1263,7 +1323,9 @@
         <v>2248</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2">
+        <v>1859</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1296,7 +1358,9 @@
         <v>646</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>620</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1329,7 +1393,9 @@
         <v>104</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="2">
+        <v>140</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1355,7 +1421,7 @@
         <v>3864</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" ref="F20:J20" si="11">+F16-SUM(F17:F19)</f>
+        <f t="shared" ref="F20:K20" si="11">+F16-SUM(F17:F19)</f>
         <v>0</v>
       </c>
       <c r="G20" s="2">
@@ -1374,7 +1440,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2">
+        <f t="shared" si="11"/>
+        <v>3337</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1419,7 +1488,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K21" s="2"/>
+      <c r="K21" s="2">
+        <v>107</v>
+      </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1452,7 +1523,9 @@
         <v>111</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="K22" s="2">
+        <v>575</v>
+      </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1485,7 +1558,9 @@
         <v>536</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2">
+        <v>7</v>
+      </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1518,7 +1593,9 @@
         <v>39</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1544,7 +1621,7 @@
         <v>3208</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" ref="F25:J25" si="15">+F20-SUM(F22:F24)</f>
+        <f t="shared" ref="F25:K25" si="15">+F20-SUM(F22:F24)</f>
         <v>0</v>
       </c>
       <c r="G25" s="2">
@@ -1563,7 +1640,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2">
+        <f>+K20-SUM(K21:K24)</f>
+        <v>2648</v>
+      </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1596,7 +1676,9 @@
         <v>381</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="K26" s="2">
+        <v>376</v>
+      </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1629,7 +1711,9 @@
         <v>-36</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="K27" s="2">
+        <v>-57</v>
+      </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1671,10 +1755,13 @@
         <v>2845</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" ref="J28" si="17">+J25-J26-J27</f>
+        <f t="shared" ref="J28:K28" si="17">+J25-J26-J27</f>
         <v>0</v>
       </c>
-      <c r="K28" s="2"/>
+      <c r="K28" s="2">
+        <f t="shared" si="17"/>
+        <v>2329</v>
+      </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1707,7 +1794,9 @@
         <v>588</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="K29" s="2">
+        <v>461</v>
+      </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1749,10 +1838,13 @@
         <v>2257</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" ref="J30" si="19">+J28-J29</f>
+        <f t="shared" ref="J30:K30" si="19">+J28-J29</f>
         <v>0</v>
       </c>
-      <c r="K30" s="2"/>
+      <c r="K30" s="2">
+        <f t="shared" si="19"/>
+        <v>1868</v>
+      </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -1811,10 +1903,13 @@
         <v>3.1491558532161292</v>
       </c>
       <c r="J32" s="6" t="e">
-        <f t="shared" ref="J32" si="21">+J30/J33</f>
+        <f t="shared" ref="J32:K32" si="21">+J30/J33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="2"/>
+      <c r="K32" s="6">
+        <f t="shared" si="21"/>
+        <v>2.6129528605399357</v>
+      </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -1847,7 +1942,9 @@
         <v>716.7</v>
       </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="K33" s="2">
+        <v>714.9</v>
+      </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>

--- a/MCD.xlsx
+++ b/MCD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4922DEF-0907-43CA-935C-CFF357DAEF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970ABDFD-14F7-49C7-8ABD-770CCC1F1A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{F591250C-CB18-4FD5-B790-41838C77CFBC}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{F591250C-CB18-4FD5-B790-41838C77CFBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -242,13 +242,19 @@
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -312,22 +318,26 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -666,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD69AFEC-A665-49C2-83A5-1A2C73D2C6AC}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -689,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="2">
-        <v>296.01</v>
+        <v>315.08</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -697,10 +707,10 @@
         <v>5</v>
       </c>
       <c r="H3" s="3">
-        <v>715.03272700000002</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>61</v>
+        <v>713.60443399999997</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -712,7 +722,7 @@
       </c>
       <c r="H4" s="3">
         <f>+H2*H3</f>
-        <v>211656.83751926999</v>
+        <v>224842.48506471998</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -723,10 +733,10 @@
         <v>7</v>
       </c>
       <c r="H5" s="3">
-        <v>1238</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>61</v>
+        <v>1876</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -734,11 +744,11 @@
         <v>8</v>
       </c>
       <c r="H6" s="3">
-        <f>38845+80</f>
-        <v>38925</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>61</v>
+        <f>602+40801</f>
+        <v>41403</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -747,7 +757,7 @@
       </c>
       <c r="H7" s="3">
         <f>+H4-H5+H6</f>
-        <v>249343.83751926999</v>
+        <v>264369.48506471998</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -772,11 +782,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C4F720-B3A9-4712-8731-C18DD4200F2B}">
   <dimension ref="A1:R233"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -964,7 +974,7 @@
       </c>
       <c r="K6" s="8">
         <f>+K13/K3</f>
-        <v>8.7751677852348997E-2</v>
+        <v>5.1102588686481307E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -1005,7 +1015,7 @@
       </c>
       <c r="K7" s="8">
         <f>+K13/K4</f>
-        <v>1.7981335952848723</v>
+        <v>1.0471512770137525</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1086,7 +1096,9 @@
       <c r="K10" s="3">
         <v>2403</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3">
+        <v>2781</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1120,7 +1132,9 @@
       <c r="K11" s="3">
         <v>2862</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3">
+        <v>3462</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1154,7 +1168,9 @@
       <c r="K12" s="3">
         <v>528</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3">
+        <v>600</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1186,9 +1202,11 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3">
-        <v>3661</v>
-      </c>
-      <c r="L13" s="3"/>
+        <v>2132</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2458</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -1221,9 +1239,11 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3">
-        <v>2132</v>
-      </c>
-      <c r="L14" s="3"/>
+        <v>3661</v>
+      </c>
+      <c r="L14" s="3">
+        <v>4213</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1258,7 +1278,9 @@
       <c r="K15" s="3">
         <v>162</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3">
+        <v>172</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1305,7 +1327,9 @@
       <c r="K16" s="7">
         <v>5956</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="7">
+        <v>6843</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1340,7 +1364,9 @@
       <c r="K17" s="3">
         <v>1859</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3">
+        <v>2078</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1375,7 +1401,9 @@
       <c r="K18" s="3">
         <v>620</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3">
+        <v>654</v>
+      </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -1410,7 +1438,9 @@
       <c r="K19" s="3">
         <v>140</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3">
+        <v>149</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -1455,10 +1485,13 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="11"/>
+        <f>+K16-SUM(K17:K19)</f>
         <v>3337</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3">
+        <f>+L16-SUM(L17:L19)</f>
+        <v>3962</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1505,7 +1538,9 @@
       <c r="K21" s="3">
         <v>107</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="3">
+        <v>106</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -1540,7 +1575,9 @@
       <c r="K22" s="3">
         <v>575</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3">
+        <v>595</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -1575,7 +1612,9 @@
       <c r="K23" s="3">
         <v>7</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3">
+        <v>29</v>
+      </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -1610,7 +1649,9 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -1658,7 +1699,10 @@
         <f>+K20-SUM(K21:K24)</f>
         <v>2648</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="3">
+        <f>+L20-SUM(L21:L24)</f>
+        <v>3232</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1693,7 +1737,9 @@
       <c r="K26" s="3">
         <v>376</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="3">
+        <v>390</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -1728,7 +1774,9 @@
       <c r="K27" s="3">
         <v>-57</v>
       </c>
-      <c r="L27" s="3"/>
+      <c r="L27" s="3">
+        <v>-18</v>
+      </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -1769,14 +1817,17 @@
         <v>2845</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" ref="J28:K28" si="17">+J25-J26-J27</f>
+        <f t="shared" ref="J28:L28" si="17">+J25-J26-J27</f>
         <v>0</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="17"/>
         <v>2329</v>
       </c>
-      <c r="L28" s="3"/>
+      <c r="L28" s="3">
+        <f t="shared" si="17"/>
+        <v>2860</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -1811,7 +1862,9 @@
       <c r="K29" s="3">
         <v>461</v>
       </c>
-      <c r="L29" s="3"/>
+      <c r="L29" s="3">
+        <v>608</v>
+      </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -1852,14 +1905,17 @@
         <v>2257</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" ref="J30:K30" si="19">+J28-J29</f>
+        <f t="shared" ref="J30:L30" si="19">+J28-J29</f>
         <v>0</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" si="19"/>
         <v>1868</v>
       </c>
-      <c r="L30" s="3"/>
+      <c r="L30" s="3">
+        <f t="shared" si="19"/>
+        <v>2252</v>
+      </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -1917,14 +1973,17 @@
         <v>3.1491558532161292</v>
       </c>
       <c r="J32" s="8" t="e">
-        <f t="shared" ref="J32:K32" si="21">+J30/J33</f>
+        <f t="shared" ref="J32:L32" si="21">+J30/J33</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="8">
         <f t="shared" si="21"/>
         <v>2.6129528605399357</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="8">
+        <f t="shared" si="21"/>
+        <v>3.1518544436668998</v>
+      </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -1959,7 +2018,9 @@
       <c r="K33" s="3">
         <v>714.9</v>
       </c>
-      <c r="L33" s="3"/>
+      <c r="L33" s="3">
+        <v>714.5</v>
+      </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -2009,10 +2070,22 @@
         <f>+J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="K35" s="9">
+        <f t="shared" ref="K35:N36" si="23">+K3/G3-1</f>
+        <v>4.6532045654082532E-2</v>
+      </c>
+      <c r="L35" s="9">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="M35" s="9">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="N35" s="9" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -2035,17 +2108,29 @@
         <v>1.9275975552421221E-2</v>
       </c>
       <c r="I36" s="9">
-        <f t="shared" ref="I36:J36" si="23">+I4/E4-1</f>
+        <f t="shared" ref="I36:J36" si="24">+I4/E4-1</f>
         <v>-3.7313432835820892E-2</v>
       </c>
       <c r="J36" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="9">
+        <f t="shared" si="23"/>
+        <v>-5.4342777519739927E-2</v>
+      </c>
+      <c r="L36" s="9">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="M36" s="9">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="N36" s="9" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -2060,11 +2145,11 @@
       <c r="E37" s="3"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9">
-        <f t="shared" ref="G37:H43" si="24">+G10/C10-1</f>
+        <f t="shared" ref="G37:H43" si="25">+G10/C10-1</f>
         <v>2.8938906752411508E-2</v>
       </c>
       <c r="H37" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1.1106997408367736E-3</v>
       </c>
       <c r="I37" s="9">
@@ -2072,13 +2157,25 @@
         <v>1.2943786982248628E-2</v>
       </c>
       <c r="J37" s="9" t="e">
-        <f t="shared" ref="J37:J43" si="25">+J10/F10-1</f>
+        <f t="shared" ref="J37:J43" si="26">+J10/F10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
+      <c r="K37" s="9">
+        <f t="shared" ref="K37:K43" si="27">+K10/G10-1</f>
+        <v>-6.1328124999999956E-2</v>
+      </c>
+      <c r="L37" s="9">
+        <f t="shared" ref="L37:L43" si="28">+L10/H10-1</f>
+        <v>3.0763528539659024E-2</v>
+      </c>
+      <c r="M37" s="9">
+        <f t="shared" ref="M37:M43" si="29">+M10/I10-1</f>
+        <v>-1</v>
+      </c>
+      <c r="N37" s="9" t="e">
+        <f t="shared" ref="N37:N43" si="30">+N10/J10-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
@@ -2093,25 +2190,37 @@
       <c r="E38" s="3"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.8694096601073396E-2</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-2.8517110266159662E-3</v>
       </c>
       <c r="I38" s="9">
-        <f t="shared" ref="I38:I43" si="26">+I11/E11-1</f>
+        <f t="shared" ref="I38:I43" si="31">+I11/E11-1</f>
         <v>2.7272727272726893E-3</v>
       </c>
       <c r="J38" s="9" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
+      <c r="K38" s="9">
+        <f t="shared" si="27"/>
+        <v>-4.1848008034817585E-2</v>
+      </c>
+      <c r="L38" s="9">
+        <f t="shared" si="28"/>
+        <v>0.100095328884652</v>
+      </c>
+      <c r="M38" s="9">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="N38" s="9" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
@@ -2126,25 +2235,37 @@
       <c r="E39" s="3"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.7560975609756184E-3</v>
       </c>
       <c r="H39" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.2402496099844829E-3</v>
       </c>
       <c r="I39" s="9">
+        <f t="shared" si="31"/>
+        <v>0.19912790697674421</v>
+      </c>
+      <c r="J39" s="9" t="e">
         <f t="shared" si="26"/>
-        <v>0.19912790697674421</v>
-      </c>
-      <c r="J39" s="9" t="e">
-        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+      <c r="K39" s="9">
+        <f t="shared" si="27"/>
+        <v>-0.14975845410628019</v>
+      </c>
+      <c r="L39" s="9">
+        <f t="shared" si="28"/>
+        <v>-6.9767441860465129E-2</v>
+      </c>
+      <c r="M39" s="9">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="N39" s="9" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
@@ -2159,25 +2280,37 @@
       <c r="E40" s="3"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.8902877697841749E-2</v>
       </c>
       <c r="H40" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1.0454362685967E-2</v>
       </c>
       <c r="I40" s="9">
+        <f t="shared" si="31"/>
+        <v>3.9123630672926346E-2</v>
+      </c>
+      <c r="J40" s="9" t="e">
         <f t="shared" si="26"/>
-        <v>3.9123630672926346E-2</v>
-      </c>
-      <c r="J40" s="9" t="e">
-        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
+      <c r="K40" s="9">
+        <f t="shared" si="27"/>
+        <v>-9.4692144373673015E-2</v>
+      </c>
+      <c r="L40" s="9">
+        <f t="shared" si="28"/>
+        <v>-1.2190166598943231E-3</v>
+      </c>
+      <c r="M40" s="9">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="N40" s="9" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
@@ -2192,25 +2325,37 @@
       <c r="E41" s="3"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.7625418060200699E-2</v>
       </c>
       <c r="H41" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.7798118484617653E-3</v>
       </c>
       <c r="I41" s="9">
+        <f t="shared" si="31"/>
+        <v>1.1613540894489738E-2</v>
+      </c>
+      <c r="J41" s="9" t="e">
         <f t="shared" si="26"/>
-        <v>1.1613540894489738E-2</v>
-      </c>
-      <c r="J41" s="9" t="e">
-        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
+      <c r="K41" s="9">
+        <f t="shared" si="27"/>
+        <v>-1.6653236637120594E-2</v>
+      </c>
+      <c r="L41" s="9">
+        <f t="shared" si="28"/>
+        <v>6.9289340101522878E-2</v>
+      </c>
+      <c r="M41" s="9">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="N41" s="9" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
@@ -2225,58 +2370,82 @@
       <c r="E42" s="3"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.8139534883721034E-2</v>
       </c>
       <c r="H42" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.1558441558441559</v>
       </c>
       <c r="I42" s="9">
+        <f t="shared" si="31"/>
+        <v>0.39325842696629221</v>
+      </c>
+      <c r="J42" s="9" t="e">
         <f t="shared" si="26"/>
-        <v>0.39325842696629221</v>
-      </c>
-      <c r="J42" s="9" t="e">
-        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
+      <c r="K42" s="9">
+        <f t="shared" si="27"/>
+        <v>0.78021978021978011</v>
+      </c>
+      <c r="L42" s="9">
+        <f t="shared" si="28"/>
+        <v>0.93258426966292141</v>
+      </c>
+      <c r="M42" s="9">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="N42" s="9" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9">
-        <f t="shared" si="24"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11">
+        <f t="shared" si="25"/>
         <v>4.594777890810442E-2</v>
       </c>
-      <c r="H43" s="9">
-        <f t="shared" si="24"/>
+      <c r="H43" s="11">
+        <f t="shared" si="25"/>
         <v>-1.0774203478528532E-3</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="11">
+        <f t="shared" si="31"/>
+        <v>2.7196652719665204E-2</v>
+      </c>
+      <c r="J43" s="11" t="e">
         <f t="shared" si="26"/>
-        <v>2.7196652719665204E-2</v>
-      </c>
-      <c r="J43" s="9" t="e">
-        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
+      <c r="K43" s="11">
+        <f t="shared" si="27"/>
+        <v>-3.4527476090128073E-2</v>
+      </c>
+      <c r="L43" s="11">
+        <f t="shared" si="28"/>
+        <v>5.4391371340523964E-2</v>
+      </c>
+      <c r="M43" s="11">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="N43" s="11" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
@@ -2287,27 +2456,27 @@
         <v>58</v>
       </c>
       <c r="C44" s="9">
-        <f t="shared" ref="C44:H44" si="27">+C20/C16</f>
+        <f t="shared" ref="C44:H44" si="32">+C20/C16</f>
         <v>0.56188538487622919</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0.57426504540557177</v>
       </c>
       <c r="E44" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0.57740585774058573</v>
       </c>
       <c r="F44" s="9" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G44" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0.55746474307018967</v>
       </c>
       <c r="H44" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0.57288135593220335</v>
       </c>
       <c r="I44" s="9">
@@ -2315,13 +2484,25 @@
         <v>0.56386383473959845</v>
       </c>
       <c r="J44" s="9" t="e">
-        <f t="shared" ref="J44" si="28">+J20/J16</f>
+        <f t="shared" ref="J44:N44" si="33">+J20/J16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
+      <c r="K44" s="9">
+        <f t="shared" si="33"/>
+        <v>0.56027535258562788</v>
+      </c>
+      <c r="L44" s="9">
+        <f t="shared" si="33"/>
+        <v>0.57898582493058603</v>
+      </c>
+      <c r="M44" s="9" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N44" s="9" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
@@ -2332,27 +2513,27 @@
         <v>59</v>
       </c>
       <c r="C45" s="9">
-        <f t="shared" ref="C45:H45" si="29">+C25/C16</f>
+        <f t="shared" ref="C45:H45" si="34">+C25/C16</f>
         <v>0.42946761614106477</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0.47791288286901645</v>
       </c>
       <c r="E45" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0.47937836222355051</v>
       </c>
       <c r="F45" s="9" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G45" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0.44334576106338142</v>
       </c>
       <c r="H45" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0.44992295839753466</v>
       </c>
       <c r="I45" s="9">
@@ -2360,13 +2541,25 @@
         <v>0.46406750072737851</v>
       </c>
       <c r="J45" s="9" t="e">
-        <f t="shared" ref="J45" si="30">+J25/J16</f>
+        <f t="shared" ref="J45:N45" si="35">+J25/J16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
+      <c r="K45" s="9">
+        <f t="shared" si="35"/>
+        <v>0.44459368703828073</v>
+      </c>
+      <c r="L45" s="9">
+        <f t="shared" si="35"/>
+        <v>0.47230746748502117</v>
+      </c>
+      <c r="M45" s="9" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N45" s="9" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
@@ -2377,27 +2570,27 @@
         <v>60</v>
       </c>
       <c r="C46" s="9">
-        <f t="shared" ref="C46:H46" si="31">+C29/C28</f>
+        <f t="shared" ref="C46:H46" si="36">+C29/C28</f>
         <v>0.2051168945743273</v>
       </c>
       <c r="D46" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0.17955997161107168</v>
       </c>
       <c r="E46" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0.20732124529592885</v>
       </c>
       <c r="F46" s="9" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G46" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0.19892026578073091</v>
       </c>
       <c r="H46" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0.20852895148669798</v>
       </c>
       <c r="I46" s="9">
@@ -2405,13 +2598,25 @@
         <v>0.20667838312829526</v>
       </c>
       <c r="J46" s="9" t="e">
-        <f t="shared" ref="J46" si="32">+J29/J28</f>
+        <f t="shared" ref="J46:N46" si="37">+J29/J28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
+      <c r="K46" s="9">
+        <f t="shared" si="37"/>
+        <v>0.19793902962644913</v>
+      </c>
+      <c r="L46" s="9">
+        <f t="shared" si="37"/>
+        <v>0.21258741258741259</v>
+      </c>
+      <c r="M46" s="9" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N46" s="9" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>

--- a/MCD.xlsx
+++ b/MCD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970ABDFD-14F7-49C7-8ABD-770CCC1F1A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3645A38-D47B-4774-90B8-0D879DB1E1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{F591250C-CB18-4FD5-B790-41838C77CFBC}"/>
   </bookViews>
@@ -334,10 +334,10 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -699,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="2">
-        <v>315.08</v>
+        <v>316.05</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -707,10 +707,10 @@
         <v>5</v>
       </c>
       <c r="H3" s="3">
-        <v>713.60443399999997</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>62</v>
+        <v>712.15435000000002</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -722,7 +722,7 @@
       </c>
       <c r="H4" s="3">
         <f>+H2*H3</f>
-        <v>224842.48506471998</v>
+        <v>225076.38231750001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -733,10 +733,10 @@
         <v>7</v>
       </c>
       <c r="H5" s="3">
-        <v>1876</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>62</v>
+        <v>2413</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -744,11 +744,11 @@
         <v>8</v>
       </c>
       <c r="H6" s="3">
-        <f>602+40801</f>
-        <v>41403</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>62</v>
+        <f>1800+39483</f>
+        <v>41283</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -757,7 +757,7 @@
       </c>
       <c r="H7" s="3">
         <f>+H4-H5+H6</f>
-        <v>264369.48506471998</v>
+        <v>263946.38231750001</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -780,13 +780,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C4F720-B3A9-4712-8731-C18DD4200F2B}">
-  <dimension ref="A1:R233"/>
+  <dimension ref="A1:AV233"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -796,12 +796,12 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -839,8 +839,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="3">
@@ -866,9 +866,50 @@
       <c r="K3" s="3">
         <v>41720</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="L3" s="3">
+        <v>42059</v>
+      </c>
+      <c r="M3" s="3">
+        <v>42546</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="3">
@@ -894,8 +935,49 @@
       <c r="K4" s="3">
         <v>2036</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L4" s="3">
+        <v>2054</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2053</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
@@ -928,15 +1010,23 @@
         <v>42819</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" ref="J5:K5" si="1">+J3+J4</f>
+        <f t="shared" ref="J5:M5" si="1">+J3+J4</f>
         <v>0</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="1"/>
         <v>43756</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L5" s="7">
+        <f t="shared" si="1"/>
+        <v>44113</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="1"/>
+        <v>44599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
@@ -976,33 +1066,45 @@
         <f>+K13/K3</f>
         <v>5.1102588686481307E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L6" s="8">
+        <f t="shared" ref="L6:N6" si="4">+L13/L3</f>
+        <v>5.8441712831974128E-2</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="4"/>
+        <v>6.0240680675034082E-2</v>
+      </c>
+      <c r="N6" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="8">
-        <f t="shared" ref="C7:H7" si="4">+C13/C4</f>
+        <f t="shared" ref="C7:H7" si="5">+C13/C4</f>
         <v>1.0500472143531634</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1692524682651622</v>
       </c>
       <c r="E7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1921641791044777</v>
       </c>
       <c r="F7" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.093822573153739</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1351476014760147</v>
       </c>
       <c r="I7" s="8">
@@ -1010,40 +1112,52 @@
         <v>1.2868217054263567</v>
       </c>
       <c r="J7" s="8" t="e">
-        <f t="shared" ref="J7" si="5">+J13/J4</f>
+        <f t="shared" ref="J7" si="6">+J13/J4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K7" s="8">
         <f>+K13/K4</f>
         <v>1.0471512770137525</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L7" s="8">
+        <f t="shared" ref="L7:N7" si="7">+L13/L4</f>
+        <v>1.1966893865628043</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="7"/>
+        <v>1.248416950803702</v>
+      </c>
+      <c r="N7" s="8" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="8">
-        <f t="shared" ref="C8:H8" si="6">+C16/C5</f>
+        <f t="shared" ref="C8:H8" si="8">+C16/C5</f>
         <v>0.14550388553102259</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15923629322810715</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1624350696635759</v>
       </c>
       <c r="F8" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14681803036793756</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15304438051219166</v>
       </c>
       <c r="I8" s="8">
@@ -1051,15 +1165,27 @@
         <v>0.16053621056073239</v>
       </c>
       <c r="J8" s="8" t="e">
-        <f t="shared" ref="J8" si="7">+J16/J5</f>
+        <f t="shared" ref="J8" si="9">+J16/J5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K8" s="8">
         <f>+K16/K5</f>
         <v>0.13611847518054668</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L8" s="8">
+        <f t="shared" ref="L8:N8" si="10">+L16/L5</f>
+        <v>0.15512433976378845</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="10"/>
+        <v>0.15870310993520034</v>
+      </c>
+      <c r="N8" s="8" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1069,7 +1195,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
@@ -1099,13 +1225,15 @@
       <c r="L10" s="3">
         <v>2781</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="3">
+        <v>2772</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1135,13 +1263,15 @@
       <c r="L11" s="3">
         <v>3462</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3">
+        <v>3658</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
@@ -1171,13 +1301,15 @@
       <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3">
+        <v>648</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
@@ -1207,14 +1339,16 @@
       <c r="L13" s="3">
         <v>2458</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3">
+        <v>2563</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1244,14 +1378,16 @@
       <c r="L14" s="3">
         <v>4213</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3">
+        <v>4363</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1281,23 +1417,25 @@
       <c r="L15" s="3">
         <v>172</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3">
+        <v>151</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="7">
-        <f t="shared" ref="C16:H16" si="8">+SUM(C13:C15)</f>
+        <f t="shared" ref="C16:H16" si="11">+SUM(C13:C15)</f>
         <v>5898</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6497</v>
       </c>
       <c r="E16" s="7">
@@ -1305,15 +1443,15 @@
         <v>6692</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6169</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6490</v>
       </c>
       <c r="I16" s="7">
@@ -1321,7 +1459,7 @@
         <v>6874</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" ref="J16" si="9">+SUM(J13:J15)</f>
+        <f t="shared" ref="J16" si="12">+SUM(J13:J15)</f>
         <v>0</v>
       </c>
       <c r="K16" s="7">
@@ -1330,7 +1468,9 @@
       <c r="L16" s="7">
         <v>6843</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="7">
+        <v>7078</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -1367,7 +1507,9 @@
       <c r="L17" s="3">
         <v>2078</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3">
+        <v>2172</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -1404,7 +1546,9 @@
       <c r="L18" s="3">
         <v>654</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3">
+        <v>666</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -1441,7 +1585,9 @@
       <c r="L19" s="3">
         <v>149</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="3">
+        <v>135</v>
+      </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -1453,11 +1599,11 @@
         <v>25</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" ref="C20:D20" si="10">+C16-SUM(C17:C19)</f>
+        <f t="shared" ref="C20:D20" si="13">+C16-SUM(C17:C19)</f>
         <v>3314</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3731</v>
       </c>
       <c r="E20" s="3">
@@ -1465,23 +1611,23 @@
         <v>3864</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" ref="F20:K20" si="11">+F16-SUM(F17:F19)</f>
+        <f t="shared" ref="F20:J20" si="14">+F16-SUM(F17:F19)</f>
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3439</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3718</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3876</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K20" s="3">
@@ -1492,7 +1638,10 @@
         <f>+L16-SUM(L17:L19)</f>
         <v>3962</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="3">
+        <f>+M16-SUM(M17:M19)</f>
+        <v>4105</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -1504,11 +1653,11 @@
         <v>26</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" ref="C21:D21" si="12">+SUM(C22:C24)</f>
+        <f t="shared" ref="C21:D21" si="15">+SUM(C22:C24)</f>
         <v>781</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>626</v>
       </c>
       <c r="E21" s="3">
@@ -1516,23 +1665,23 @@
         <v>656</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" ref="F21:J21" si="13">+SUM(F22:F24)</f>
+        <f t="shared" ref="F21:J21" si="16">+SUM(F22:F24)</f>
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>704</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>798</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>686</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K21" s="3">
@@ -1541,7 +1690,9 @@
       <c r="L21" s="3">
         <v>106</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="3">
+        <v>121</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -1578,7 +1729,9 @@
       <c r="L22" s="3">
         <v>595</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="3">
+        <v>664</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -1615,7 +1768,9 @@
       <c r="L23" s="3">
         <v>29</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="3">
+        <v>-37</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -1652,7 +1807,9 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -1664,11 +1821,11 @@
         <v>29</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ref="C25:D25" si="14">+C20-SUM(C22:C24)</f>
+        <f t="shared" ref="C25:D25" si="17">+C20-SUM(C22:C24)</f>
         <v>2533</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3105</v>
       </c>
       <c r="E25" s="3">
@@ -1676,23 +1833,23 @@
         <v>3208</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" ref="F25:J25" si="15">+F20-SUM(F22:F24)</f>
+        <f t="shared" ref="F25:J25" si="18">+F20-SUM(F22:F24)</f>
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2735</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2920</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3190</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K25" s="3">
@@ -1703,7 +1860,10 @@
         <f>+L20-SUM(L21:L24)</f>
         <v>3232</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" s="3">
+        <f>+M20-SUM(M21:M24)</f>
+        <v>3357</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -1740,7 +1900,9 @@
       <c r="L26" s="3">
         <v>390</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="3">
+        <v>406</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -1777,7 +1939,9 @@
       <c r="L27" s="3">
         <v>-18</v>
       </c>
-      <c r="M27" s="3"/>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -1789,27 +1953,27 @@
         <v>33</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" ref="C28:H28" si="16">+C25-C26-C27</f>
+        <f t="shared" ref="C28:H28" si="19">+C25-C26-C27</f>
         <v>2267</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2818</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2923</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2408</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2556</v>
       </c>
       <c r="I28" s="3">
@@ -1817,18 +1981,21 @@
         <v>2845</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" ref="J28:L28" si="17">+J25-J26-J27</f>
+        <f t="shared" ref="J28:M28" si="20">+J25-J26-J27</f>
         <v>0</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2329</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2860</v>
       </c>
-      <c r="M28" s="3"/>
+      <c r="M28" s="3">
+        <f t="shared" si="20"/>
+        <v>2950</v>
+      </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -1865,7 +2032,9 @@
       <c r="L29" s="3">
         <v>608</v>
       </c>
-      <c r="M29" s="3"/>
+      <c r="M29" s="3">
+        <v>671</v>
+      </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -1877,27 +2046,27 @@
         <v>35</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" ref="C30:H30" si="18">+C28-C29</f>
+        <f t="shared" ref="C30:H30" si="21">+C28-C29</f>
         <v>1802</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2312</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2317</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1929</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2023</v>
       </c>
       <c r="I30" s="3">
@@ -1905,18 +2074,21 @@
         <v>2257</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" ref="J30:L30" si="19">+J28-J29</f>
+        <f t="shared" ref="J30:M30" si="22">+J28-J29</f>
         <v>0</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1868</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2252</v>
       </c>
-      <c r="M30" s="3"/>
+      <c r="M30" s="3">
+        <f t="shared" si="22"/>
+        <v>2279</v>
+      </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -1945,27 +2117,27 @@
         <v>36</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" ref="C32:H32" si="20">+C30/C33</f>
+        <f t="shared" ref="C32:H32" si="23">+C30/C33</f>
         <v>2.4654535504172936</v>
       </c>
       <c r="D32" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3.1688596491228069</v>
       </c>
       <c r="E32" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3.1861936193619358</v>
       </c>
       <c r="F32" s="8" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.6724854530340818</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.814412910406233</v>
       </c>
       <c r="I32" s="8">
@@ -1973,18 +2145,21 @@
         <v>3.1491558532161292</v>
       </c>
       <c r="J32" s="8" t="e">
-        <f t="shared" ref="J32:L32" si="21">+J30/J33</f>
+        <f t="shared" ref="J32:M32" si="24">+J30/J33</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.6129528605399357</v>
       </c>
       <c r="L32" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3.1518544436668998</v>
       </c>
-      <c r="M32" s="3"/>
+      <c r="M32" s="8">
+        <f t="shared" si="24"/>
+        <v>3.1968017954832377</v>
+      </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -2021,7 +2196,9 @@
       <c r="L33" s="3">
         <v>714.5</v>
       </c>
-      <c r="M33" s="3"/>
+      <c r="M33" s="3">
+        <v>712.9</v>
+      </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -2055,11 +2232,11 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9">
-        <f t="shared" ref="G35:H36" si="22">+G3/C3-1</f>
+        <f t="shared" ref="G35:H36" si="25">+G3/C3-1</f>
         <v>3.7691646927141553E-2</v>
       </c>
       <c r="H35" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4.0440606091947995E-2</v>
       </c>
       <c r="I35" s="9">
@@ -2071,19 +2248,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="9">
-        <f t="shared" ref="K35:N36" si="23">+K3/G3-1</f>
+        <f t="shared" ref="K35:N36" si="26">+K3/G3-1</f>
         <v>4.6532045654082532E-2</v>
       </c>
       <c r="L35" s="9">
-        <f t="shared" si="23"/>
-        <v>-1</v>
+        <f t="shared" si="26"/>
+        <v>4.5255728415925178E-2</v>
       </c>
       <c r="M35" s="9">
-        <f t="shared" si="23"/>
-        <v>-1</v>
+        <f t="shared" si="26"/>
+        <v>4.394552815605457E-2</v>
       </c>
       <c r="N35" s="9" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O35" s="3"/>
@@ -2100,35 +2277,35 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.6525023607176559E-2</v>
       </c>
       <c r="H36" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.9275975552421221E-2</v>
       </c>
       <c r="I36" s="9">
-        <f t="shared" ref="I36:J36" si="24">+I4/E4-1</f>
+        <f t="shared" ref="I36:J36" si="27">+I4/E4-1</f>
         <v>-3.7313432835820892E-2</v>
       </c>
       <c r="J36" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-5.4342777519739927E-2</v>
       </c>
       <c r="L36" s="9">
-        <f t="shared" si="23"/>
-        <v>-1</v>
+        <f t="shared" si="26"/>
+        <v>-5.2583025830258312E-2</v>
       </c>
       <c r="M36" s="9">
-        <f t="shared" si="23"/>
-        <v>-1</v>
+        <f t="shared" si="26"/>
+        <v>-5.3294573643410947E-3</v>
       </c>
       <c r="N36" s="9" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O36" s="3"/>
@@ -2145,11 +2322,11 @@
       <c r="E37" s="3"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9">
-        <f t="shared" ref="G37:H43" si="25">+G10/C10-1</f>
+        <f t="shared" ref="G37:H43" si="28">+G10/C10-1</f>
         <v>2.8938906752411508E-2</v>
       </c>
       <c r="H37" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-1.1106997408367736E-3</v>
       </c>
       <c r="I37" s="9">
@@ -2157,23 +2334,23 @@
         <v>1.2943786982248628E-2</v>
       </c>
       <c r="J37" s="9" t="e">
-        <f t="shared" ref="J37:J43" si="26">+J10/F10-1</f>
+        <f t="shared" ref="J37:J43" si="29">+J10/F10-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K37" s="9">
-        <f t="shared" ref="K37:K43" si="27">+K10/G10-1</f>
+        <f t="shared" ref="K37:K43" si="30">+K10/G10-1</f>
         <v>-6.1328124999999956E-2</v>
       </c>
       <c r="L37" s="9">
-        <f t="shared" ref="L37:L43" si="28">+L10/H10-1</f>
+        <f t="shared" ref="L37:L43" si="31">+L10/H10-1</f>
         <v>3.0763528539659024E-2</v>
       </c>
       <c r="M37" s="9">
-        <f t="shared" ref="M37:M43" si="29">+M10/I10-1</f>
-        <v>-1</v>
+        <f t="shared" ref="M37:M43" si="32">+M10/I10-1</f>
+        <v>1.2048192771084265E-2</v>
       </c>
       <c r="N37" s="9" t="e">
-        <f t="shared" ref="N37:N43" si="30">+N10/J10-1</f>
+        <f t="shared" ref="N37:N43" si="33">+N10/J10-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O37" s="3"/>
@@ -2190,35 +2367,35 @@
       <c r="E38" s="3"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>6.8694096601073396E-2</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-2.8517110266159662E-3</v>
       </c>
       <c r="I38" s="9">
-        <f t="shared" ref="I38:I43" si="31">+I11/E11-1</f>
+        <f t="shared" ref="I38:I43" si="34">+I11/E11-1</f>
         <v>2.7272727272726893E-3</v>
       </c>
       <c r="J38" s="9" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-4.1848008034817585E-2</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.100095328884652</v>
       </c>
       <c r="M38" s="9">
-        <f t="shared" si="29"/>
-        <v>-1</v>
+        <f t="shared" si="32"/>
+        <v>0.1054699304925959</v>
       </c>
       <c r="N38" s="9" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O38" s="3"/>
@@ -2235,35 +2412,35 @@
       <c r="E39" s="3"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>9.7560975609756184E-3</v>
       </c>
       <c r="H39" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>6.2402496099844829E-3</v>
       </c>
       <c r="I39" s="9">
+        <f t="shared" si="34"/>
+        <v>0.19912790697674421</v>
+      </c>
+      <c r="J39" s="9" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="9">
+        <f t="shared" si="30"/>
+        <v>-0.14975845410628019</v>
+      </c>
+      <c r="L39" s="9">
         <f t="shared" si="31"/>
-        <v>0.19912790697674421</v>
-      </c>
-      <c r="J39" s="9" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="9">
-        <f t="shared" si="27"/>
-        <v>-0.14975845410628019</v>
-      </c>
-      <c r="L39" s="9">
-        <f t="shared" si="28"/>
         <v>-6.9767441860465129E-2</v>
       </c>
       <c r="M39" s="9">
-        <f t="shared" si="29"/>
-        <v>-1</v>
+        <f t="shared" si="32"/>
+        <v>-0.21454545454545459</v>
       </c>
       <c r="N39" s="9" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O39" s="3"/>
@@ -2280,35 +2457,35 @@
       <c r="E40" s="3"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>5.8902877697841749E-2</v>
       </c>
       <c r="H40" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-1.0454362685967E-2</v>
       </c>
       <c r="I40" s="9">
+        <f t="shared" si="34"/>
+        <v>3.9123630672926346E-2</v>
+      </c>
+      <c r="J40" s="9" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" s="9">
+        <f t="shared" si="30"/>
+        <v>-9.4692144373673015E-2</v>
+      </c>
+      <c r="L40" s="9">
         <f t="shared" si="31"/>
-        <v>3.9123630672926346E-2</v>
-      </c>
-      <c r="J40" s="9" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" s="9">
-        <f t="shared" si="27"/>
-        <v>-9.4692144373673015E-2</v>
-      </c>
-      <c r="L40" s="9">
-        <f t="shared" si="28"/>
         <v>-1.2190166598943231E-3</v>
       </c>
       <c r="M40" s="9">
-        <f t="shared" si="29"/>
-        <v>-1</v>
+        <f t="shared" si="32"/>
+        <v>-3.5015060240963902E-2</v>
       </c>
       <c r="N40" s="9" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O40" s="3"/>
@@ -2325,35 +2502,35 @@
       <c r="E41" s="3"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>3.7625418060200699E-2</v>
       </c>
       <c r="H41" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.7798118484617653E-3</v>
       </c>
       <c r="I41" s="9">
+        <f t="shared" si="34"/>
+        <v>1.1613540894489738E-2</v>
+      </c>
+      <c r="J41" s="9" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="9">
+        <f t="shared" si="30"/>
+        <v>-1.6653236637120594E-2</v>
+      </c>
+      <c r="L41" s="9">
         <f t="shared" si="31"/>
-        <v>1.1613540894489738E-2</v>
-      </c>
-      <c r="J41" s="9" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="9">
-        <f t="shared" si="27"/>
-        <v>-1.6653236637120594E-2</v>
-      </c>
-      <c r="L41" s="9">
-        <f t="shared" si="28"/>
         <v>6.9289340101522878E-2</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" si="29"/>
-        <v>-1</v>
+        <f t="shared" si="32"/>
+        <v>6.570591108939916E-2</v>
       </c>
       <c r="N41" s="9" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O41" s="3"/>
@@ -2370,35 +2547,35 @@
       <c r="E42" s="3"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>5.8139534883721034E-2</v>
       </c>
       <c r="H42" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.1558441558441559</v>
       </c>
       <c r="I42" s="9">
+        <f t="shared" si="34"/>
+        <v>0.39325842696629221</v>
+      </c>
+      <c r="J42" s="9" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K42" s="9">
+        <f t="shared" si="30"/>
+        <v>0.78021978021978011</v>
+      </c>
+      <c r="L42" s="9">
         <f t="shared" si="31"/>
-        <v>0.39325842696629221</v>
-      </c>
-      <c r="J42" s="9" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K42" s="9">
-        <f t="shared" si="27"/>
-        <v>0.78021978021978011</v>
-      </c>
-      <c r="L42" s="9">
-        <f t="shared" si="28"/>
         <v>0.93258426966292141</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" si="29"/>
-        <v>-1</v>
+        <f t="shared" si="32"/>
+        <v>0.217741935483871</v>
       </c>
       <c r="N42" s="9" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O42" s="3"/>
@@ -2413,37 +2590,37 @@
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11">
-        <f t="shared" si="25"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10">
+        <f t="shared" si="28"/>
         <v>4.594777890810442E-2</v>
       </c>
-      <c r="H43" s="11">
-        <f t="shared" si="25"/>
+      <c r="H43" s="10">
+        <f t="shared" si="28"/>
         <v>-1.0774203478528532E-3</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="10">
+        <f t="shared" si="34"/>
+        <v>2.7196652719665204E-2</v>
+      </c>
+      <c r="J43" s="10" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K43" s="10">
+        <f t="shared" si="30"/>
+        <v>-3.4527476090128073E-2</v>
+      </c>
+      <c r="L43" s="10">
         <f t="shared" si="31"/>
-        <v>2.7196652719665204E-2</v>
-      </c>
-      <c r="J43" s="11" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K43" s="11">
-        <f t="shared" si="27"/>
-        <v>-3.4527476090128073E-2</v>
-      </c>
-      <c r="L43" s="11">
-        <f t="shared" si="28"/>
         <v>5.4391371340523964E-2</v>
       </c>
-      <c r="M43" s="11">
-        <f t="shared" si="29"/>
-        <v>-1</v>
-      </c>
-      <c r="N43" s="11" t="e">
-        <f t="shared" si="30"/>
+      <c r="M43" s="10">
+        <f t="shared" si="32"/>
+        <v>2.9677043933663105E-2</v>
+      </c>
+      <c r="N43" s="10" t="e">
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O43" s="3"/>
@@ -2456,27 +2633,27 @@
         <v>58</v>
       </c>
       <c r="C44" s="9">
-        <f t="shared" ref="C44:H44" si="32">+C20/C16</f>
+        <f t="shared" ref="C44:H44" si="35">+C20/C16</f>
         <v>0.56188538487622919</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.57426504540557177</v>
       </c>
       <c r="E44" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.57740585774058573</v>
       </c>
       <c r="F44" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G44" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.55746474307018967</v>
       </c>
       <c r="H44" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.57288135593220335</v>
       </c>
       <c r="I44" s="9">
@@ -2484,23 +2661,23 @@
         <v>0.56386383473959845</v>
       </c>
       <c r="J44" s="9" t="e">
-        <f t="shared" ref="J44:N44" si="33">+J20/J16</f>
+        <f t="shared" ref="J44:N44" si="36">+J20/J16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K44" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.56027535258562788</v>
       </c>
       <c r="L44" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.57898582493058603</v>
       </c>
-      <c r="M44" s="9" t="e">
-        <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
+      <c r="M44" s="9">
+        <f t="shared" si="36"/>
+        <v>0.57996609211641703</v>
       </c>
       <c r="N44" s="9" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O44" s="3"/>
@@ -2513,27 +2690,27 @@
         <v>59</v>
       </c>
       <c r="C45" s="9">
-        <f t="shared" ref="C45:H45" si="34">+C25/C16</f>
+        <f t="shared" ref="C45:H45" si="37">+C25/C16</f>
         <v>0.42946761614106477</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.47791288286901645</v>
       </c>
       <c r="E45" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.47937836222355051</v>
       </c>
       <c r="F45" s="9" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G45" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.44334576106338142</v>
       </c>
       <c r="H45" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.44992295839753466</v>
       </c>
       <c r="I45" s="9">
@@ -2541,23 +2718,23 @@
         <v>0.46406750072737851</v>
       </c>
       <c r="J45" s="9" t="e">
-        <f t="shared" ref="J45:N45" si="35">+J25/J16</f>
+        <f t="shared" ref="J45:N45" si="38">+J25/J16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K45" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.44459368703828073</v>
       </c>
       <c r="L45" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.47230746748502117</v>
       </c>
-      <c r="M45" s="9" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
+      <c r="M45" s="9">
+        <f t="shared" si="38"/>
+        <v>0.47428652161627577</v>
       </c>
       <c r="N45" s="9" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O45" s="3"/>
@@ -2570,27 +2747,27 @@
         <v>60</v>
       </c>
       <c r="C46" s="9">
-        <f t="shared" ref="C46:H46" si="36">+C29/C28</f>
+        <f t="shared" ref="C46:H46" si="39">+C29/C28</f>
         <v>0.2051168945743273</v>
       </c>
       <c r="D46" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.17955997161107168</v>
       </c>
       <c r="E46" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.20732124529592885</v>
       </c>
       <c r="F46" s="9" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G46" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.19892026578073091</v>
       </c>
       <c r="H46" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.20852895148669798</v>
       </c>
       <c r="I46" s="9">
@@ -2598,23 +2775,23 @@
         <v>0.20667838312829526</v>
       </c>
       <c r="J46" s="9" t="e">
-        <f t="shared" ref="J46:N46" si="37">+J29/J28</f>
+        <f t="shared" ref="J46:N46" si="40">+J29/J28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K46" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.19793902962644913</v>
       </c>
       <c r="L46" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.21258741258741259</v>
       </c>
-      <c r="M46" s="9" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+      <c r="M46" s="9">
+        <f t="shared" si="40"/>
+        <v>0.22745762711864406</v>
       </c>
       <c r="N46" s="9" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O46" s="3"/>
